--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:43:23+02:00</t>
+    <t>2023-04-28T21:13:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:13:26+02:00</t>
+    <t>2023-05-07T23:02:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:02:44+02:00</t>
+    <t>2023-05-09T23:50:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:50:17+02:00</t>
+    <t>2023-06-07T11:52:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -40,7 +40,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:52:14+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,10 +273,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -18,12 +18,13 @@
     <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
+    <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -40,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -70,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-01T22:25:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +83,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -152,6 +153,9 @@
   </si>
   <si>
     <t>0337193a-b5cc-43e1-a324-fa28944bfc3b</t>
+  </si>
+  <si>
+    <t>aec684bd-c2ea-4ff0-8eb7-6d2cf67fb863</t>
   </si>
 </sst>
 </file>
@@ -573,6 +577,61 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>

--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -18,13 +18,12 @@
     <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
-    <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +40,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T22:25:19+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +82,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -153,9 +152,6 @@
   </si>
   <si>
     <t>0337193a-b5cc-43e1-a324-fa28944bfc3b</t>
-  </si>
-  <si>
-    <t>aec684bd-c2ea-4ff0-8eb7-6d2cf67fb863</t>
   </si>
 </sst>
 </file>
@@ -577,7 +573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -608,7 +604,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -632,7 +628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -663,7 +659,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -687,7 +683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -718,7 +714,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -773,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -797,7 +793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -828,7 +824,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -852,7 +848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -883,7 +879,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -907,7 +903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -938,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -962,7 +958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -993,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1015,59 +1011,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -18,12 +18,13 @@
     <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
+    <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -40,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -70,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-03T10:45:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +83,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -152,6 +153,9 @@
   </si>
   <si>
     <t>0337193a-b5cc-43e1-a324-fa28944bfc3b</t>
+  </si>
+  <si>
+    <t>aec684bd-c2ea-4ff0-8eb7-6d2cf67fb863</t>
   </si>
 </sst>
 </file>
@@ -573,6 +577,61 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>

--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -18,13 +18,12 @@
     <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
-    <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +40,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:45:43+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +82,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -153,9 +152,6 @@
   </si>
   <si>
     <t>0337193a-b5cc-43e1-a324-fa28944bfc3b</t>
-  </si>
-  <si>
-    <t>aec684bd-c2ea-4ff0-8eb7-6d2cf67fb863</t>
   </si>
 </sst>
 </file>
@@ -577,7 +573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -608,7 +604,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -632,7 +628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -663,7 +659,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -687,7 +683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -718,7 +714,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -773,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -797,7 +793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -828,7 +824,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -852,7 +848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -883,7 +879,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -907,7 +903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -938,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -962,7 +958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -993,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1015,59 +1011,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -18,12 +18,13 @@
     <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
+    <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -40,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -70,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-04T14:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +83,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -152,6 +153,9 @@
   </si>
   <si>
     <t>0337193a-b5cc-43e1-a324-fa28944bfc3b</t>
+  </si>
+  <si>
+    <t>aec684bd-c2ea-4ff0-8eb7-6d2cf67fb863</t>
   </si>
 </sst>
 </file>
@@ -573,6 +577,61 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>

--- a/term/ValueSet-KLConditionCodesTheraphy.xlsx
+++ b/term/ValueSet-KLConditionCodesTheraphy.xlsx
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:59:10+02:00</t>
+    <t>2024-06-13T16:58:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
